--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Myoc</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H2">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I2">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J2">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.38232766666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N2">
-        <v>91.14698300000001</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O2">
-        <v>0.4410933377331532</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P2">
-        <v>0.4410933377331531</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q2">
-        <v>28.53800897543189</v>
+        <v>7.460642539411221</v>
       </c>
       <c r="R2">
-        <v>256.842080778887</v>
+        <v>67.145782854701</v>
       </c>
       <c r="S2">
-        <v>0.01037337134811355</v>
+        <v>0.002499967262706358</v>
       </c>
       <c r="T2">
-        <v>0.01037337134811355</v>
+        <v>0.002499967262706358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H3">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I3">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J3">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q3">
-        <v>21.31313632687167</v>
+        <v>5.534274431081667</v>
       </c>
       <c r="R3">
-        <v>191.818226941845</v>
+        <v>49.808469879735</v>
       </c>
       <c r="S3">
-        <v>0.007747179486205299</v>
+        <v>0.001854465594276936</v>
       </c>
       <c r="T3">
-        <v>0.007747179486205296</v>
+        <v>0.001854465594276936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H4">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I4">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J4">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +676,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.71027466666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N4">
-        <v>47.130824</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q4">
-        <v>14.75660339005956</v>
+        <v>6.011193899213222</v>
       </c>
       <c r="R4">
-        <v>132.809430510536</v>
+        <v>54.10074509291899</v>
       </c>
       <c r="S4">
-        <v>0.005363924544760659</v>
+        <v>0.002014275295784268</v>
       </c>
       <c r="T4">
-        <v>0.005363924544760658</v>
+        <v>0.002014275295784268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9392963333333334</v>
+        <v>37.428193</v>
       </c>
       <c r="H5">
-        <v>2.817889</v>
+        <v>112.284579</v>
       </c>
       <c r="I5">
-        <v>0.02351740654579802</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J5">
-        <v>0.02351740654579801</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09645133333333333</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N5">
-        <v>0.289354</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q5">
-        <v>0.09059638374511111</v>
+        <v>1144.877808476999</v>
       </c>
       <c r="R5">
-        <v>0.8153674537060001</v>
+        <v>10303.900276293</v>
       </c>
       <c r="S5">
-        <v>3.293116671850837E-05</v>
+        <v>0.3836341207706989</v>
       </c>
       <c r="T5">
-        <v>3.293116671850836E-05</v>
+        <v>0.3836341207706989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>112.284579</v>
       </c>
       <c r="I6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.38232766666667</v>
+        <v>22.690535</v>
       </c>
       <c r="N6">
-        <v>91.14698300000001</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O6">
-        <v>0.4410933377331532</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P6">
-        <v>0.4410933377331531</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q6">
-        <v>1137.15562369724</v>
+        <v>849.265723253255</v>
       </c>
       <c r="R6">
-        <v>10234.40061327516</v>
+        <v>7643.391509279296</v>
       </c>
       <c r="S6">
-        <v>0.413348302446829</v>
+        <v>0.2845782376325094</v>
       </c>
       <c r="T6">
-        <v>0.4133483024468289</v>
+        <v>0.2845782376325094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>112.284579</v>
       </c>
       <c r="I7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +862,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.690535</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N7">
-        <v>68.07160500000001</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q7">
-        <v>849.265723253255</v>
+        <v>922.4517139517935</v>
       </c>
       <c r="R7">
-        <v>7643.391509279296</v>
+        <v>8302.065425566143</v>
       </c>
       <c r="S7">
-        <v>0.3087022899219942</v>
+        <v>0.3091019404997316</v>
       </c>
       <c r="T7">
-        <v>0.3087022899219941</v>
+        <v>0.3091019404997316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.428193</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H8">
-        <v>112.284579</v>
+        <v>1.874675</v>
       </c>
       <c r="I8">
-        <v>0.937099400709813</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J8">
-        <v>0.937099400709813</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +924,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.71027466666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N8">
-        <v>47.130824</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O8">
-        <v>0.2280831661567317</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P8">
-        <v>0.2280831661567317</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q8">
-        <v>588.0071923070108</v>
+        <v>19.11459102150278</v>
       </c>
       <c r="R8">
-        <v>5292.064730763097</v>
+        <v>172.031319193525</v>
       </c>
       <c r="S8">
-        <v>0.21373659831747</v>
+        <v>0.006405058484084531</v>
       </c>
       <c r="T8">
-        <v>0.21373659831747</v>
+        <v>0.006405058484084531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.428193</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H9">
-        <v>112.284579</v>
+        <v>1.874675</v>
       </c>
       <c r="I9">
-        <v>0.937099400709813</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J9">
-        <v>0.937099400709813</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09645133333333333</v>
+        <v>22.690535</v>
       </c>
       <c r="N9">
-        <v>0.289354</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O9">
-        <v>0.001400289043537939</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P9">
-        <v>0.001400289043537939</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q9">
-        <v>3.609999119107334</v>
+        <v>14.17912623370833</v>
       </c>
       <c r="R9">
-        <v>32.489992071966</v>
+        <v>127.612136103375</v>
       </c>
       <c r="S9">
-        <v>0.00131221002351992</v>
+        <v>0.004751246452406653</v>
       </c>
       <c r="T9">
-        <v>0.00131221002351992</v>
+        <v>0.004751246452406652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H10">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,462 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.38232766666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N10">
-        <v>91.14698300000001</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O10">
-        <v>0.4410933377331532</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P10">
-        <v>0.4410933377331531</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q10">
-        <v>45.93813006921278</v>
+        <v>15.40102106855277</v>
       </c>
       <c r="R10">
-        <v>413.443170622915</v>
+        <v>138.609189616975</v>
       </c>
       <c r="S10">
-        <v>0.01669819652296447</v>
+        <v>0.005160688007801447</v>
       </c>
       <c r="T10">
-        <v>0.01669819652296446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>1.512001666666667</v>
-      </c>
-      <c r="H11">
-        <v>4.536005</v>
-      </c>
-      <c r="I11">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="J11">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.690535</v>
-      </c>
-      <c r="N11">
-        <v>68.07160500000001</v>
-      </c>
-      <c r="O11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="P11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="Q11">
-        <v>34.30812673755833</v>
-      </c>
-      <c r="R11">
-        <v>308.773140638025</v>
-      </c>
-      <c r="S11">
-        <v>0.01247076974477159</v>
-      </c>
-      <c r="T11">
-        <v>0.01247076974477159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>1.512001666666667</v>
-      </c>
-      <c r="H12">
-        <v>4.536005</v>
-      </c>
-      <c r="I12">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="J12">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>15.71027466666667</v>
-      </c>
-      <c r="N12">
-        <v>47.130824</v>
-      </c>
-      <c r="O12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="P12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="Q12">
-        <v>23.75396147979112</v>
-      </c>
-      <c r="R12">
-        <v>213.78565331812</v>
-      </c>
-      <c r="S12">
-        <v>0.008634402758468157</v>
-      </c>
-      <c r="T12">
-        <v>0.008634402758468154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>1.512001666666667</v>
-      </c>
-      <c r="H13">
-        <v>4.536005</v>
-      </c>
-      <c r="I13">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="J13">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.289354</v>
-      </c>
-      <c r="O13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q13">
-        <v>0.1458345767522222</v>
-      </c>
-      <c r="R13">
-        <v>1.31251119077</v>
-      </c>
-      <c r="S13">
-        <v>5.300987260001639E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.300987260001637E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.182945</v>
-      </c>
-      <c r="I14">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J14">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>30.38232766666667</v>
-      </c>
-      <c r="N14">
-        <v>91.14698300000001</v>
-      </c>
-      <c r="O14">
-        <v>0.4410933377331532</v>
-      </c>
-      <c r="P14">
-        <v>0.4410933377331531</v>
-      </c>
-      <c r="Q14">
-        <v>1.852764978326111</v>
-      </c>
-      <c r="R14">
-        <v>16.674884804935</v>
-      </c>
-      <c r="S14">
-        <v>0.0006734674152461767</v>
-      </c>
-      <c r="T14">
-        <v>0.0006734674152461765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.182945</v>
-      </c>
-      <c r="I15">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J15">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>22.690535</v>
-      </c>
-      <c r="N15">
-        <v>68.07160500000001</v>
-      </c>
-      <c r="O15">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="P15">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="Q15">
-        <v>1.383706641858333</v>
-      </c>
-      <c r="R15">
-        <v>12.453359776725</v>
-      </c>
-      <c r="S15">
-        <v>0.0005029679136061883</v>
-      </c>
-      <c r="T15">
-        <v>0.0005029679136061881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.182945</v>
-      </c>
-      <c r="I16">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J16">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>15.71027466666667</v>
-      </c>
-      <c r="N16">
-        <v>47.130824</v>
-      </c>
-      <c r="O16">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="P16">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="Q16">
-        <v>0.9580387329644445</v>
-      </c>
-      <c r="R16">
-        <v>8.62234859668</v>
-      </c>
-      <c r="S16">
-        <v>0.0003482405360329093</v>
-      </c>
-      <c r="T16">
-        <v>0.0003482405360329092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.182945</v>
-      </c>
-      <c r="I17">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J17">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.289354</v>
-      </c>
-      <c r="O17">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P17">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q17">
-        <v>0.005881763058888888</v>
-      </c>
-      <c r="R17">
-        <v>0.05293586753</v>
-      </c>
-      <c r="S17">
-        <v>2.137980699494378E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.137980699494377E-06</v>
+        <v>0.005160688007801446</v>
       </c>
     </row>
   </sheetData>
